--- a/data/trans_bre/P19_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>-3,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-15,21%</t>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,21%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 8,49</t>
+          <t>-10,49; 21,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 8,61</t>
+          <t>-13,38; 7,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 12,3</t>
+          <t>-12,48; 2,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 7,33</t>
+          <t>-7,59; 11,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 3,05</t>
+          <t>-13,31; 6,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 55,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 49,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 87,22</t>
+          <t>-12,84; 35,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 50,78</t>
+          <t>-15,62; 10,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-41,62; 18,5</t>
+          <t>-14,3; 2,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 15,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-16,23; 8,85</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>2,39</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,61</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,74%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 7,17</t>
+          <t>-9,37; 2,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 7,07</t>
+          <t>-6,43; 6,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,3</t>
+          <t>-5,98; 4,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,61</t>
+          <t>-3,41; 7,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 9,73</t>
+          <t>-2,32; 9,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 48,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 46,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 42,1</t>
+          <t>-10,79; 3,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 21,56</t>
+          <t>-7,75; 8,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 90,26</t>
+          <t>-6,82; 5,51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 9,39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 10,91</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>-2,49%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-7,08%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 9,55</t>
+          <t>-13,24; 3,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 5,53</t>
+          <t>-8,38; 4,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 8,85</t>
+          <t>-11,76; -0,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 3,89</t>
+          <t>-4,66; 5,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 4,94</t>
+          <t>-6,38; 3,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 55,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 35,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 63,33</t>
+          <t>-16,23; 4,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 44,06</t>
+          <t>-9,65; 5,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 54,19</t>
+          <t>-13,33; -0,82</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 6,29</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 3,65</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-6,72</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>-4,69%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,48%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 6,4</t>
+          <t>-6,87; 1,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,93</t>
+          <t>-9,96; 0,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,64</t>
+          <t>-10,99; 3,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,75</t>
+          <t>-12,88; -1,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 36,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 29,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 46,85</t>
+          <t>-8,24; 1,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 19,87</t>
+          <t>-11,75; 1,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 34,58</t>
+          <t>-12,73; 4,35</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-14,05; -1,21</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-3,49</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,65%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,88%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,88%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 0,25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 1,01</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; -0,31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 4,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 0,77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 0,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 1,21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,6; -0,39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 5,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; 0,91</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
